--- a/data/trans_dic/P74B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Estudios-trans_dic.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,0</t>
+          <t>10,47; 15,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,59; 24,11</t>
+          <t>16,26; 23,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 23,39</t>
+          <t>15,71; 23,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,59; 91,42</t>
+          <t>85,23; 91,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,54; 83,35</t>
+          <t>76,7; 83,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,6; 83,28</t>
+          <t>75,3; 82,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,38; 48,36</t>
+          <t>42,54; 48,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,4; 53,66</t>
+          <t>47,33; 53,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,1; 53,88</t>
+          <t>47,55; 54,27</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,57</t>
+          <t>1,71; 4,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,9</t>
+          <t>5,22; 9,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,97</t>
+          <t>7,04; 11,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,03; 71,01</t>
+          <t>54,72; 71,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,46; 53,9</t>
+          <t>42,48; 54,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,31; 58,6</t>
+          <t>47,84; 58,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,99</t>
+          <t>11,07; 15,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 22,37</t>
+          <t>17,17; 22,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,23; 26,18</t>
+          <t>21,09; 26,23</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 12,0</t>
+          <t>2,78; 12,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 21,8</t>
+          <t>5,04; 21,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 20,44</t>
+          <t>8,64; 19,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,47; 95,1</t>
+          <t>61,71; 95,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,21; 75,33</t>
+          <t>41,36; 74,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,3; 61,35</t>
+          <t>34,08; 62,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,61</t>
+          <t>9,69; 21,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,99; 33,46</t>
+          <t>17,54; 32,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 30,36</t>
+          <t>16,92; 29,57</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,74</t>
+          <t>10,85; 14,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,67; 14,33</t>
+          <t>10,84; 14,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,86; 85,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,88; 71,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,9; 69,52</t>
+          <t>62,86; 69,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,31; 32,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,67; 36,71</t>
+          <t>32,84; 36,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,84; 36,11</t>
+          <t>31,85; 36,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 15,72</t>
+          <t>10,5; 15,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 23,8</t>
+          <t>16,38; 23,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,71; 23,46</t>
+          <t>15,78; 23,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,23; 91,31</t>
+          <t>85,46; 91,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,7; 83,77</t>
+          <t>76,46; 83,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,3; 82,94</t>
+          <t>75,28; 83,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,54; 48,34</t>
+          <t>42,37; 48,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,33; 53,55</t>
+          <t>47,37; 53,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,55; 54,27</t>
+          <t>47,08; 53,94</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,35</t>
+          <t>1,65; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,53</t>
+          <t>5,19; 9,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,16</t>
+          <t>7,0; 10,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,72; 71,01</t>
+          <t>55,2; 71,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,48; 54,11</t>
+          <t>42,3; 54,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,84; 58,28</t>
+          <t>48,63; 58,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,95</t>
+          <t>11,16; 16,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 22,33</t>
+          <t>17,22; 22,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,09; 26,23</t>
+          <t>21,06; 26,21</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 12,17</t>
+          <t>2,98; 12,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 21,02</t>
+          <t>6,02; 22,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 19,88</t>
+          <t>8,41; 20,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,71; 95,11</t>
+          <t>62,03; 95,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,36; 74,54</t>
+          <t>40,79; 73,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,08; 62,0</t>
+          <t>34,1; 62,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,69; 21,06</t>
+          <t>9,74; 21,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,54; 32,92</t>
+          <t>17,61; 33,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 29,57</t>
+          <t>16,54; 29,53</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,98</t>
+          <t>6,29; 9,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,58</t>
+          <t>10,75; 14,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 14,43</t>
+          <t>10,76; 14,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,86; 85,86</t>
+          <t>79,82; 85,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,88; 71,28</t>
+          <t>65,09; 71,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,86; 69,6</t>
+          <t>63,06; 69,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 32,35</t>
+          <t>28,28; 32,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,84; 36,84</t>
+          <t>32,83; 37,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,85; 36,14</t>
+          <t>31,93; 35,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,8</t>
+          <t>10,58; 16,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,38; 23,9</t>
+          <t>16,59; 24,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 23,6</t>
+          <t>15,59; 23,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,46; 91,52</t>
+          <t>85,59; 91,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,46; 83,48</t>
+          <t>76,54; 83,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,28; 83,07</t>
+          <t>75,6; 83,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,37; 48,34</t>
+          <t>42,38; 48,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,37; 53,37</t>
+          <t>47,4; 53,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,08; 53,94</t>
+          <t>47,1; 53,88</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,62</t>
+          <t>1,59; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,35</t>
+          <t>5,29; 9,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,93</t>
+          <t>6,77; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,2; 71,48</t>
+          <t>55,03; 71,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,3; 54,46</t>
+          <t>41,46; 53,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,63; 58,4</t>
+          <t>48,31; 58,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,01</t>
+          <t>10,96; 15,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,72</t>
+          <t>17,37; 22,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,06; 26,21</t>
+          <t>21,23; 26,18</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,51</t>
+          <t>2,68; 12,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 22,37</t>
+          <t>5,72; 21,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 20,67</t>
+          <t>8,33; 20,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,03; 95,0</t>
+          <t>61,47; 95,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,79; 73,81</t>
+          <t>42,21; 75,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,1; 62,07</t>
+          <t>33,3; 61,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 21,32</t>
+          <t>9,78; 21,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 33,11</t>
+          <t>17,99; 33,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 29,53</t>
+          <t>17,75; 30,36</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,02</t>
+          <t>6,25; 9,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,7</t>
+          <t>10,7; 14,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,32</t>
+          <t>10,67; 14,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,66</t>
+          <t>79,55; 85,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,09; 71,6</t>
+          <t>64,96; 71,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,06; 69,5</t>
+          <t>62,9; 69,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,28; 32,29</t>
+          <t>28,27; 32,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,83; 37,1</t>
+          <t>32,67; 36,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,86</t>
+          <t>31,84; 36,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,0</t>
+          <t>10,58; 15,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,59; 24,11</t>
+          <t>16,38; 23,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 23,39</t>
+          <t>15,75; 23,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,59; 91,42</t>
+          <t>85,33; 91,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,54; 83,35</t>
+          <t>76,33; 83,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,6; 83,28</t>
+          <t>75,36; 83,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,38; 48,36</t>
+          <t>42,51; 48,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,4; 53,66</t>
+          <t>47,24; 53,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,1; 53,88</t>
+          <t>47,44; 54,07</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,57</t>
+          <t>1,72; 4,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,9</t>
+          <t>4,95; 9,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,97</t>
+          <t>6,91; 11,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,03; 71,01</t>
+          <t>54,92; 71,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,46; 53,9</t>
+          <t>42,14; 54,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,31; 58,6</t>
+          <t>48,25; 58,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,99</t>
+          <t>10,98; 16,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 22,37</t>
+          <t>17,31; 22,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,23; 26,18</t>
+          <t>21,36; 26,55</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 12,0</t>
+          <t>2,81; 11,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 21,8</t>
+          <t>5,19; 20,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 20,44</t>
+          <t>8,42; 20,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,47; 95,1</t>
+          <t>61,03; 95,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,21; 75,33</t>
+          <t>41,27; 72,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,3; 61,35</t>
+          <t>32,62; 62,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 21,61</t>
+          <t>9,47; 21,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,99; 33,46</t>
+          <t>17,38; 33,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 30,36</t>
+          <t>17,16; 30,26</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,2; 9,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,74</t>
+          <t>10,75; 14,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,67; 14,33</t>
+          <t>10,65; 14,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,79; 85,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,75; 70,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,9; 69,52</t>
+          <t>62,72; 69,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,34; 32,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,67; 36,71</t>
+          <t>32,78; 36,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,84; 36,11</t>
+          <t>31,84; 35,81</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su pareja percibe algún tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78903</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>109619</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>78652</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>403586</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>446925</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>353167</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>482489</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>556544</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>431819</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>64307; 95751</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89943; 129661</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>64095; 94440</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>388057; 416172</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>425195; 465156</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>334501; 369200</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>451808; 513570</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>522491; 590690</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>403624; 460027</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18407</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49672</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70212</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88071</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>152906</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>211470</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>106478</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>202578</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>281682</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11229; 29061</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35273; 66869</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>55128; 88229</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>76106; 98500</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>133844; 172781</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>190459; 232344</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>86971; 127484</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>178243; 232810</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>254720; 316584</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9790</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13574</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20221</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15757</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25810</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27206</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25547</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>39383</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47427</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4326; 18386</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5894; 22917</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12439; 29762</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11426; 17804</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18149; 31866</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18516; 35243</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16368; 37049</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27361; 52281</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35104; 61905</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>107100</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>172865</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>169085</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>507414</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>625640</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>591843</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>614514</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>798505</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>760928</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87757; 128470</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>147776; 200069</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>144049; 193826</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>488369; 524803</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>594825; 651059</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>561562; 620439</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>574679; 654034</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>751649; 842557</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>715522; 804886</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>